--- a/results/SMR Results/lmer_multi_comp_basin_season.xlsx
+++ b/results/SMR Results/lmer_multi_comp_basin_season.xlsx
@@ -611,22 +611,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.765799626327878</v>
+        <v>0.765797946344785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00378897017672659</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16570</v>
+        <v>0.00378895840265473</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-53.9307319344735</v>
+        <v>-53.9312245996163</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -640,22 +640,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.80523424565289</v>
+        <v>0.805233597224265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00392745350517606</v>
-      </c>
-      <c r="F3" t="n">
-        <v>16570</v>
+        <v>0.00392744504622971</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-44.4133831821293</v>
+        <v>-44.4136081769636</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -669,22 +669,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.10708021756803</v>
+        <v>1.10707919052077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00547475199553018</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16570</v>
+        <v>0.00547474010803213</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>20.5706066047321</v>
+        <v>20.5704445895034</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -698,22 +698,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.766458165928853</v>
+        <v>0.766459405755177</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00338355228108665</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16570</v>
+        <v>0.00338355523440523</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-60.2499434137055</v>
+        <v>-60.2496218579679</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.813075547176888</v>
+        <v>0.813076591105194</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00360506427137796</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16570</v>
+        <v>0.00360506622491329</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>-46.6706628479872</v>
+        <v>-46.6704079066578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -756,22 +756,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1048194311172</v>
+        <v>1.10482144655893</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00511433136196082</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16570</v>
+        <v>0.00511433634357835</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>21.5337068050617</v>
+        <v>21.5341191897437</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.806570422993697</v>
+        <v>0.806569709358657</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00521041202011225</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16570</v>
+        <v>0.00521040402406319</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-33.2763813950363</v>
+        <v>-33.2765399832012</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -814,22 +814,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.82206948760998</v>
+        <v>0.822070781053671</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00509785739267325</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16570</v>
+        <v>0.00509785866591683</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-31.5953060745626</v>
+        <v>-31.5950941721892</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -843,22 +843,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.44565259567525</v>
+        <v>1.44565442595524</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00716813042003113</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16570</v>
+        <v>0.00716813454684621</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>74.3305308368383</v>
+        <v>74.3308374859826</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06082182083812</v>
+        <v>1.06082146686436</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00450460899208164</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16570</v>
+        <v>0.00450460234161221</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>13.9046626821974</v>
+        <v>13.9045999905025</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.44146083925962</v>
+        <v>1.4414611370975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00644904040529079</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16570</v>
+        <v>0.00644903377045221</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>81.7300428307882</v>
+        <v>81.7301899861773</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -930,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.30628645775062</v>
+        <v>1.30628730548544</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00848966268159605</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16570</v>
+        <v>0.00848966301995421</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>41.1117063065918</v>
+        <v>41.1118312031254</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.37485486185502</v>
+        <v>1.37485469351627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00663275738080306</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16570</v>
+        <v>0.00663274979264538</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>65.9880205005348</v>
+        <v>65.9880625341468</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.35881522320193</v>
+        <v>1.35881595737147</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00603144917309166</v>
-      </c>
-      <c r="F15" t="n">
-        <v>16570</v>
+        <v>0.00603144546407264</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>69.0763725896124</v>
+        <v>69.0765741136683</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1017,22 +1017,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.28165810391776</v>
+        <v>1.28165578513063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00785685284094662</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16570</v>
+        <v>0.00785682935201948</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>40.4805083226424</v>
+        <v>40.4802609761613</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0000000275192044707495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1046,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0514946964836</v>
+        <v>1.0514961564832</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00512514282383136</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16570</v>
+        <v>0.00512514603442167</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>10.3018316804521</v>
+        <v>10.3021244011111</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000000275193168253196</v>
+        <v>0.00000000000012401191185063</v>
       </c>
     </row>
     <row r="18">
@@ -1075,22 +1075,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.05361202077885</v>
+        <v>1.05361177232429</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00655957242579993</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16570</v>
+        <v>0.00655956540390666</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>8.38837141684398</v>
+        <v>8.38834054168241</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0000000275193305920851</v>
+        <v>0.000000000000126898491714655</v>
       </c>
     </row>
     <row r="19">
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.46731029152668</v>
+        <v>1.46730802076916</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0905829864306122</v>
-      </c>
-      <c r="F19" t="n">
-        <v>16570</v>
+        <v>0.0905852554608196</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>6.21101446907246</v>
+        <v>6.21082421278925</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0000000630046527172468</v>
+        <v>0.0000000347024705638077</v>
       </c>
     </row>
     <row r="20">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.42018468477566</v>
+        <v>1.42018897408815</v>
       </c>
       <c r="E20" t="n">
-        <v>0.087645891555345</v>
-      </c>
-      <c r="F20" t="n">
-        <v>16570</v>
+        <v>0.0876484887769789</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>5.68403386195175</v>
+        <v>5.68393153569217</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000000903867302559647</v>
+        <v>0.000000862442653959405</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.39545191852478</v>
+        <v>1.3954478213945</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0861286680037035</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16570</v>
+        <v>0.0861307067301041</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>5.39878478275179</v>
+        <v>5.39859357326528</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00000445905549972814</v>
+        <v>0.00000437662478125489</v>
       </c>
     </row>
     <row r="22">
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.40306678187112</v>
+        <v>1.40309006321342</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0988186080003708</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16570</v>
+        <v>0.0988228768247571</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>4.80843806894093</v>
+        <v>4.80854573253861</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0000975943499414988</v>
+        <v>0.0000966909108790492</v>
       </c>
     </row>
     <row r="23">
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.33875892904769</v>
+        <v>1.33876341915104</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0826014810863132</v>
-      </c>
-      <c r="F23" t="n">
-        <v>16570</v>
+        <v>0.0826039576360956</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7284087133202</v>
+        <v>4.72833716623468</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000144309246002283</v>
+        <v>0.000143192957780647</v>
       </c>
     </row>
     <row r="24">
@@ -1249,22 +1249,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.752955552412622</v>
+        <v>0.75295809122599</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0464789413224435</v>
-      </c>
-      <c r="F24" t="n">
-        <v>16570</v>
+        <v>0.0464803345500271</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.59671497238397</v>
+        <v>-4.59653806527125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000270635988661394</v>
+        <v>0.000268931754286328</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.37661375929707</v>
+        <v>1.37663321768905</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0968944046353464</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16570</v>
+        <v>0.0968983552147286</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>4.54105162758096</v>
+        <v>4.54113148616988</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000351054977247633</v>
+        <v>0.000348554024651504</v>
       </c>
     </row>
     <row r="26">
@@ -1307,22 +1307,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.38235732880145</v>
+        <v>1.38238415601042</v>
       </c>
       <c r="E26" t="n">
-        <v>0.104487582738229</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16570</v>
+        <v>0.104492392554553</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.28370352623852</v>
+        <v>4.28384621634737</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00111819691497606</v>
+        <v>0.00111163990056207</v>
       </c>
     </row>
     <row r="27">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.342032181242</v>
+        <v>1.34201106123482</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0944449229689312</v>
-      </c>
-      <c r="F27" t="n">
-        <v>16570</v>
+        <v>0.0944459539667761</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.18027512139229</v>
+        <v>4.17994008443195</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00174432136651259</v>
+        <v>0.00173856911900494</v>
       </c>
     </row>
     <row r="28">
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.36609859766139</v>
+        <v>1.36607470255897</v>
       </c>
       <c r="E28" t="n">
-        <v>0.103210098054335</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16570</v>
+        <v>0.103211043192466</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.12911794764097</v>
+        <v>4.1287763972608</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0021635491827301</v>
+        <v>0.00215696833456891</v>
       </c>
     </row>
     <row r="29">
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.779532570260687</v>
+        <v>0.779529492708237</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0481091941156115</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16570</v>
+        <v>0.0481102843736209</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.03563217482157</v>
+        <v>-4.03558875725185</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00318184623684115</v>
+        <v>0.0031695690213005</v>
       </c>
     </row>
     <row r="30">
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.3562947563732</v>
+        <v>1.35631774371815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.102466882356999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>16570</v>
+        <v>0.102471349810345</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>4.03388572729636</v>
+        <v>4.03400255885118</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00320454258547387</v>
+        <v>0.00319011942916125</v>
       </c>
     </row>
     <row r="31">
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.791728770049754</v>
+        <v>0.791732538917052</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0488650415885503</v>
-      </c>
-      <c r="F31" t="n">
-        <v>16570</v>
+        <v>0.048866574491524</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.78383987737558</v>
+        <v>-3.78366206732796</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00853612055950026</v>
+        <v>0.00851613415698271</v>
       </c>
     </row>
     <row r="32">
@@ -1481,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.29919685018848</v>
+        <v>1.29917232139764</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0981398701577127</v>
-      </c>
-      <c r="F32" t="n">
-        <v>16570</v>
+        <v>0.0981406334752105</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.46505374204484</v>
+        <v>3.46471143923244</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0265642628354492</v>
+        <v>0.0265424565009098</v>
       </c>
     </row>
     <row r="33">
@@ -1510,22 +1510,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.785087001269802</v>
+        <v>0.785099171503727</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0552518750675725</v>
-      </c>
-      <c r="F33" t="n">
-        <v>16570</v>
+        <v>0.0552542041596205</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.43807752681499</v>
+        <v>-3.43776563727163</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0290640340014419</v>
+        <v>0.02903909760073</v>
       </c>
     </row>
     <row r="34">
@@ -1539,22 +1539,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.771256205505605</v>
+        <v>0.771269514288376</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0582687155645281</v>
-      </c>
-      <c r="F34" t="n">
-        <v>16570</v>
+        <v>0.0582712739050583</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.43789913061069</v>
+        <v>-3.43757911937883</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0290812295229587</v>
+        <v>0.0290570736027222</v>
       </c>
     </row>
     <row r="35">
@@ -1568,22 +1568,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.787431821059736</v>
+        <v>0.78742019170788</v>
       </c>
       <c r="E35" t="n">
-        <v>0.055456859856754</v>
-      </c>
-      <c r="F35" t="n">
-        <v>16570</v>
+        <v>0.0554575166138252</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.39325498865441</v>
+        <v>-3.39337438738066</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0336746909080881</v>
+        <v>0.0336020538629906</v>
       </c>
     </row>
     <row r="36">
@@ -1597,22 +1597,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.26508726996369</v>
+        <v>1.26506778299049</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0890086892286907</v>
-      </c>
-      <c r="F36" t="n">
-        <v>16570</v>
+        <v>0.0890096911057629</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.34207845148943</v>
+        <v>3.34177042476774</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0397055336789554</v>
+        <v>0.0396795430406212</v>
       </c>
     </row>
     <row r="37">
@@ -1626,22 +1626,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.802563118126425</v>
+        <v>0.802553238119294</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0564903876440713</v>
-      </c>
-      <c r="F37" t="n">
-        <v>16570</v>
+        <v>0.0564911970727655</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.1247716994308</v>
+        <v>-3.12486335283454</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0766921464486032</v>
+        <v>0.0765850572228964</v>
       </c>
     </row>
     <row r="38">
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.826945160586558</v>
+        <v>0.826941619918784</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0510268663183002</v>
-      </c>
-      <c r="F38" t="n">
-        <v>16570</v>
+        <v>0.0510280062224101</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.07942786002203</v>
+        <v>-3.07941527126868</v>
       </c>
       <c r="I38" t="n">
-        <v>0.087225740780969</v>
+        <v>0.0871379423582483</v>
       </c>
     </row>
     <row r="39">
@@ -1684,22 +1684,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.01921600913502</v>
+        <v>1.01921851455014</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00656790754760136</v>
-      </c>
-      <c r="F39" t="n">
-        <v>16570</v>
+        <v>0.00656791675840331</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2.95367514383892</v>
+        <v>2.9540597254244</v>
       </c>
       <c r="I39" t="n">
-        <v>0.122632446664384</v>
+        <v>0.122409812572587</v>
       </c>
     </row>
     <row r="40">
@@ -1713,22 +1713,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.800863998404747</v>
+        <v>0.800847713500866</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0605354407393827</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16570</v>
+        <v>0.060535821401322</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.93783558451701</v>
+        <v>-2.93802638267155</v>
       </c>
       <c r="I40" t="n">
-        <v>0.127789238332235</v>
+        <v>0.127625911765287</v>
       </c>
     </row>
     <row r="41">
@@ -1742,22 +1742,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.810971809719213</v>
+        <v>0.810986929886888</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0612638023481409</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16570</v>
+        <v>0.0612665775358257</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.77352069478943</v>
+        <v>-2.77319997601676</v>
       </c>
       <c r="I41" t="n">
-        <v>0.191386738339818</v>
+        <v>0.191426883580898</v>
       </c>
     </row>
     <row r="42">
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.816253408314</v>
+        <v>0.816238816935232</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0616725460892383</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16570</v>
+        <v>0.0616730867613117</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.68716446993787</v>
+        <v>-2.68732946702651</v>
       </c>
       <c r="I42" t="n">
-        <v>0.232539515878339</v>
+        <v>0.232356424776525</v>
       </c>
     </row>
     <row r="43">
@@ -1800,22 +1800,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.832837422203368</v>
+        <v>0.832850054748579</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0586020937993505</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16570</v>
+        <v>0.0586045446736436</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.59956545986158</v>
+        <v>-2.59928061601239</v>
       </c>
       <c r="I43" t="n">
-        <v>0.27976297803227</v>
+        <v>0.279833064202385</v>
       </c>
     </row>
     <row r="44">
@@ -1829,22 +1829,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.12366567295818</v>
+        <v>1.12366146896025</v>
       </c>
       <c r="E44" t="n">
-        <v>0.069368602450059</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16570</v>
+        <v>0.0693701877092556</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1.88868182389934</v>
+        <v>1.88857099515578</v>
       </c>
       <c r="I44" t="n">
-        <v>0.766614481779028</v>
+        <v>0.766704795949736</v>
       </c>
     </row>
     <row r="45">
@@ -1858,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.13167216774219</v>
+        <v>1.13168994449007</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0796610053822325</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16570</v>
+        <v>0.0796643785457154</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.75724241809824</v>
+        <v>1.7574187621598</v>
       </c>
       <c r="I45" t="n">
-        <v>0.841046405438956</v>
+        <v>0.840985512809214</v>
       </c>
     </row>
     <row r="46">
@@ -1887,22 +1887,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.11496853541982</v>
+        <v>1.11498918693534</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0842364950707688</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16570</v>
+        <v>0.0842403004222402</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.4404418438904</v>
+        <v>1.44064860650687</v>
       </c>
       <c r="I46" t="n">
-        <v>0.955561073031604</v>
+        <v>0.955535659655707</v>
       </c>
     </row>
     <row r="47">
@@ -1916,22 +1916,22 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0885121487734</v>
+        <v>1.08851719713966</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0671911160889146</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16570</v>
+        <v>0.0671932152570257</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.37397083692688</v>
+        <v>1.37400941735547</v>
       </c>
       <c r="I47" t="n">
-        <v>0.968499632646683</v>
+        <v>0.968509301258478</v>
       </c>
     </row>
     <row r="48">
@@ -1945,22 +1945,22 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.07984534355531</v>
+        <v>1.0798430889843</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0666308505998693</v>
-      </c>
-      <c r="F48" t="n">
-        <v>16570</v>
+        <v>0.0666324855073146</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.24493948056329</v>
+        <v>1.24487249940978</v>
       </c>
       <c r="I48" t="n">
-        <v>0.985296634800256</v>
+        <v>0.985312431550762</v>
       </c>
     </row>
     <row r="49">
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.931022296749529</v>
+        <v>0.93100745257487</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0655327487736315</v>
-      </c>
-      <c r="F49" t="n">
-        <v>16570</v>
+        <v>0.06553344964141</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.01540185547832</v>
+        <v>-1.01560131774249</v>
       </c>
       <c r="I49" t="n">
-        <v>0.997397418122406</v>
+        <v>0.997395131601408</v>
       </c>
     </row>
     <row r="50">
@@ -2003,22 +2003,22 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.06588379029127</v>
+        <v>1.06586707476979</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0805319249391755</v>
-      </c>
-      <c r="F50" t="n">
-        <v>16570</v>
+        <v>0.0805328076011228</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.844484650912295</v>
+        <v>0.844254591789072</v>
       </c>
       <c r="I50" t="n">
-        <v>0.999527399203955</v>
+        <v>0.999529118353522</v>
       </c>
     </row>
     <row r="51">
@@ -2032,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.944970182842095</v>
+        <v>0.944952457539302</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0713911523676298</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16570</v>
+        <v>0.0713917160754602</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.749212056439332</v>
+        <v>-0.74944036743741</v>
       </c>
       <c r="I51" t="n">
-        <v>0.99985196926919</v>
+        <v>0.999851692467538</v>
       </c>
     </row>
     <row r="52">
@@ -2061,22 +2061,22 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0471062268008</v>
+        <v>1.04709164254897</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0736897215016163</v>
-      </c>
-      <c r="F52" t="n">
-        <v>16570</v>
+        <v>0.0736906589266556</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.654076332192554</v>
+        <v>0.653860991242168</v>
       </c>
       <c r="I52" t="n">
-        <v>0.999961831228265</v>
+        <v>0.9999620041085</v>
       </c>
     </row>
     <row r="53">
@@ -2090,22 +2090,22 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04615779561613</v>
+        <v>1.04613720177322</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0790398200270749</v>
-      </c>
-      <c r="F53" t="n">
-        <v>16570</v>
+        <v>0.0790403704566807</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.597256478618334</v>
+        <v>0.596980016493526</v>
       </c>
       <c r="I53" t="n">
-        <v>0.999984871904474</v>
+        <v>0.999984962440213</v>
       </c>
     </row>
     <row r="54">
@@ -2119,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1.04578792006599</v>
+        <v>1.04576894900721</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0790477378042752</v>
-      </c>
-      <c r="F54" t="n">
-        <v>16570</v>
+        <v>0.079048408224109</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.592307197926475</v>
+        <v>0.5920514391176</v>
       </c>
       <c r="I54" t="n">
-        <v>0.999986109867143</v>
+        <v>0.999986188712942</v>
       </c>
     </row>
     <row r="55">
@@ -2148,22 +2148,22 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1.032970624157</v>
+        <v>1.03297387046477</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0637401827845012</v>
-      </c>
-      <c r="F55" t="n">
-        <v>16570</v>
+        <v>0.0637420798325303</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.525701006364144</v>
+        <v>0.525737941760566</v>
       </c>
       <c r="I55" t="n">
-        <v>0.999995956725612</v>
+        <v>0.999995959045643</v>
       </c>
     </row>
     <row r="56">
@@ -2177,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0325662812085</v>
+        <v>1.03258285686282</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0726949614109616</v>
-      </c>
-      <c r="F56" t="n">
-        <v>16570</v>
+        <v>0.0726980638248524</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.455202085699514</v>
+        <v>0.455417975438767</v>
       </c>
       <c r="I56" t="n">
-        <v>0.999999107729695</v>
+        <v>0.99999910446064</v>
       </c>
     </row>
     <row r="57">
@@ -2206,22 +2206,22 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1.02696223496563</v>
+        <v>1.02695866487607</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0633508006501701</v>
-      </c>
-      <c r="F57" t="n">
-        <v>16570</v>
+        <v>0.0633522679733958</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.431288828682811</v>
+        <v>0.431220987287209</v>
       </c>
       <c r="I57" t="n">
-        <v>0.999999496002068</v>
+        <v>0.999999497528836</v>
       </c>
     </row>
     <row r="58">
@@ -2235,22 +2235,22 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1.02861152425224</v>
+        <v>1.02859700051091</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0724013325190398</v>
-      </c>
-      <c r="F58" t="n">
-        <v>16570</v>
+        <v>0.0724022392609509</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.400779711490947</v>
+        <v>0.40056843687583</v>
       </c>
       <c r="I58" t="n">
-        <v>0.99999976900154</v>
+        <v>0.999999770613661</v>
       </c>
     </row>
     <row r="59">
@@ -2264,22 +2264,22 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.02736438342394</v>
+        <v>1.02734754873554</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0723420257984424</v>
-      </c>
-      <c r="F59" t="n">
-        <v>16570</v>
+        <v>0.0723427661992748</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.383392899389614</v>
+        <v>0.383149987812295</v>
       </c>
       <c r="I59" t="n">
-        <v>0.999999856118428</v>
+        <v>0.999999857288564</v>
       </c>
     </row>
     <row r="60">
@@ -2293,22 +2293,22 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.976271629372516</v>
+        <v>0.976258074871168</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0687190252953215</v>
-      </c>
-      <c r="F60" t="n">
-        <v>16570</v>
+        <v>0.0687199019991912</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.34116606410005</v>
+        <v>-0.341354216320091</v>
       </c>
       <c r="I60" t="n">
-        <v>0.999999958823962</v>
+        <v>0.999999958637583</v>
       </c>
     </row>
     <row r="61">
@@ -2322,22 +2322,22 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1.01793281618412</v>
+        <v>1.0179310305401</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0628222185970418</v>
-      </c>
-      <c r="F61" t="n">
-        <v>16570</v>
+        <v>0.0628237802574202</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.287997732426765</v>
+        <v>0.287961645215964</v>
       </c>
       <c r="I61" t="n">
-        <v>0.999999993381689</v>
+        <v>0.999999993400138</v>
       </c>
     </row>
     <row r="62">
@@ -2351,22 +2351,22 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1.01705820997548</v>
+        <v>1.01705254949567</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0627804794524286</v>
-      </c>
-      <c r="F62" t="n">
-        <v>16570</v>
+        <v>0.0627818001298546</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.274016399688152</v>
+        <v>0.273918949556587</v>
       </c>
       <c r="I62" t="n">
-        <v>0.999999996139504</v>
+        <v>0.999999996159898</v>
       </c>
     </row>
     <row r="63">
@@ -2380,22 +2380,22 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1.01498125892501</v>
+        <v>1.01497840315442</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0626560639580107</v>
-      </c>
-      <c r="F63" t="n">
-        <v>16570</v>
+        <v>0.0626575542300372</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.240885251915953</v>
+        <v>0.240833267491956</v>
       </c>
       <c r="I63" t="n">
-        <v>0.999999999047406</v>
+        <v>0.999999999051018</v>
       </c>
     </row>
     <row r="64">
@@ -2409,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.987070784397633</v>
+        <v>0.98705736568852</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0694440058051211</v>
-      </c>
-      <c r="F64" t="n">
-        <v>16570</v>
+        <v>0.069444913059222</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.184973066870387</v>
+        <v>-0.185161362528641</v>
       </c>
       <c r="I64" t="n">
-        <v>0.999999999946532</v>
+        <v>0.999999999946014</v>
       </c>
     </row>
     <row r="65">
@@ -2438,22 +2438,22 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1.01368441881427</v>
+        <v>1.01366711442357</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0765701923936287</v>
-      </c>
-      <c r="F65" t="n">
-        <v>16570</v>
+        <v>0.0765709263406291</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.179934591294061</v>
+        <v>0.179703805260464</v>
       </c>
       <c r="I65" t="n">
-        <v>0.999999999960462</v>
+        <v>0.99999999996107</v>
       </c>
     </row>
     <row r="66">
@@ -2467,19 +2467,19 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.992925075819455</v>
+        <v>0.992905764013453</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0750169059018466</v>
-      </c>
-      <c r="F66" t="n">
-        <v>16570</v>
+        <v>0.0750174460449832</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.0939766521693564</v>
+        <v>-0.0942315760995398</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -2496,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1.00545691560221</v>
+        <v>1.00547655147097</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0759916212321998</v>
-      </c>
-      <c r="F67" t="n">
-        <v>16570</v>
+        <v>0.0759951287880977</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0720050114535919</v>
+        <v>0.0722614799823959</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
